--- a/MLP-RNN Tutorial.xlsx
+++ b/MLP-RNN Tutorial.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{500D71B2-39E6-4F34-9C42-7AEB44D64B0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1675D3F5-2DF3-4DCD-8118-9B0ABE522A16}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{500D71B2-39E6-4F34-9C42-7AEB44D64B0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AE142C10-C868-43C0-B1A9-DC00BFB31BE8}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="153">
   <si>
     <t>w[0,1]</t>
   </si>
@@ -515,6 +514,30 @@
   </si>
   <si>
     <t>c[3,2]</t>
+  </si>
+  <si>
+    <t>Gate Breakdown - Layer 2 Error with respect to W[0,1]</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>W7</t>
+  </si>
+  <si>
+    <t>Mul Gate</t>
+  </si>
+  <si>
+    <t>Add Gate</t>
+  </si>
+  <si>
+    <t>Sigmoid</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Mult</t>
   </si>
 </sst>
 </file>
@@ -876,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A1:AA89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2424,20 +2447,64 @@
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
     </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="X31">
+        <f>X25*-1</f>
+        <v>-2.0861590360355833</v>
+      </c>
+    </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="X32">
+        <f>EXP(X31)</f>
+        <v>0.12416312719666728</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="X33">
+        <f>X32+1</f>
+        <v>1.1241631271966672</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>65</v>
       </c>
       <c r="F34" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="X34">
+        <f>1/X33</f>
+        <v>0.88955061396979496</v>
+      </c>
+      <c r="Y34">
+        <f>X34/X33</f>
+        <v>0.79130029481403918</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="O35" t="s">
+        <v>58</v>
+      </c>
+      <c r="P35">
+        <v>7</v>
+      </c>
+      <c r="Q35">
+        <v>9</v>
+      </c>
+      <c r="R35" t="s">
+        <v>58</v>
+      </c>
+      <c r="S35">
+        <v>8</v>
+      </c>
+      <c r="T35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="E36" s="8" t="s">
         <v>68</v>
       </c>
@@ -2487,7 +2554,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37" s="8" t="s">
         <v>61</v>
       </c>
@@ -2531,7 +2598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <f>Z25</f>
         <v>0.88955061396979496</v>
@@ -2615,7 +2682,7 @@
         <v>0.1974574978318801</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <f t="shared" ref="A39:B39" si="54">Z26</f>
         <v>0.81134238944878823</v>
@@ -2695,7 +2762,7 @@
         <v>7.1585991384366165E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <f t="shared" ref="A40:B40" si="64">Z27</f>
         <v>0.87373578243134564</v>
@@ -2775,7 +2842,7 @@
         <v>0.11111422794434461</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <f t="shared" ref="A41:B41" si="65">Z28</f>
         <v>0.89087092036640458</v>
@@ -2855,7 +2922,7 @@
         <v>0.11713632432599658</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
       <c r="O43" s="9" t="s">
         <v>27</v>
       </c>
@@ -2875,7 +2942,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
       <c r="O44" s="14">
         <f t="shared" ref="O44:T44" si="66">SUM(O38:O41)</f>
         <v>0.34469245061231479</v>
@@ -2901,7 +2968,7 @@
         <v>0.41912500213193254</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="E45">
         <f>E38*E38</f>
         <v>0.62339017202008018</v>
@@ -2925,7 +2992,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="O46" s="1" t="s">
         <v>135</v>
       </c>
@@ -2945,7 +3012,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="L47" s="2" t="s">
         <v>92</v>
       </c>
@@ -2977,873 +3044,1061 @@
         <v>4.1912500213193261E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A50" s="10" t="s">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A48" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="L48" s="2"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="L49" s="2"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="L50" s="2"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1">
+        <f>R50/2</f>
+        <v>0.31173407999999997</v>
+      </c>
+      <c r="R50" s="1">
+        <f>S50*S50</f>
+        <v>0.62346815999999994</v>
+      </c>
+      <c r="S50" s="1">
+        <f>0.8896-0.1</f>
+        <v>0.78959999999999997</v>
+      </c>
+      <c r="T50" s="1"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A53" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>108</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K55" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B57" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C57" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D57" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E57" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F57" t="s">
         <v>112</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G57" t="s">
         <v>107</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K57" t="s">
         <v>68</v>
       </c>
-      <c r="L54" s="8" t="s">
+      <c r="L57" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M57" t="s">
         <v>114</v>
       </c>
-      <c r="N54" s="8" t="s">
+      <c r="N57" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O54" s="8" t="s">
+      <c r="O57" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P57" t="s">
         <v>116</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="Q57" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A55" s="8" t="s">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A58" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B58" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C58" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E58" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F58" t="s">
         <v>111</v>
       </c>
-      <c r="K55" s="8" t="s">
+      <c r="K58" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L55" s="8" t="s">
+      <c r="L58" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M58" t="s">
         <v>115</v>
       </c>
-      <c r="N55" s="8" t="s">
+      <c r="N58" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="O55" s="8" t="s">
+      <c r="O58" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P58" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A56">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A59">
         <f>E38</f>
         <v>0.78955061396979498</v>
       </c>
-      <c r="B56">
+      <c r="B59">
         <f>G38</f>
         <v>9.8250319155755786E-2</v>
       </c>
-      <c r="C56">
+      <c r="C59">
         <f>$S$20</f>
         <v>0.7</v>
       </c>
-      <c r="D56">
+      <c r="D59">
         <f>F38</f>
         <v>0.75039960806738948</v>
       </c>
-      <c r="E56">
+      <c r="E59">
         <f>H38</f>
         <v>0.15976007547295876</v>
       </c>
-      <c r="F56">
+      <c r="F59">
         <f>$T$20</f>
         <v>0.8</v>
       </c>
-      <c r="G56">
-        <f>A56*B56*C56+D56*E56*F56</f>
+      <c r="G59">
+        <f>A59*B59*C59+D59*E59*F59</f>
         <v>0.15020863828428854</v>
       </c>
-      <c r="K56">
+      <c r="K59">
         <f>E38</f>
         <v>0.78955061396979498</v>
       </c>
-      <c r="L56">
+      <c r="L59">
         <f>G38</f>
         <v>9.8250319155755786E-2</v>
       </c>
-      <c r="M56">
+      <c r="M59">
         <f>$S$21</f>
         <v>0.9</v>
       </c>
-      <c r="N56">
+      <c r="N59">
         <f>F38</f>
         <v>0.75039960806738948</v>
       </c>
-      <c r="O56">
+      <c r="O59">
         <f>H38</f>
         <v>0.15976007547295876</v>
       </c>
-      <c r="P56">
+      <c r="P59">
         <f>$T$21</f>
         <v>0.1</v>
       </c>
-      <c r="Q56">
-        <f>K56*L56*M56+N56*O56*P56</f>
+      <c r="Q59">
+        <f>K59*L59*M59+N59*O59*P59</f>
         <v>8.180462963291224E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <f t="shared" ref="A57:A59" si="68">E39</f>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <f>E39</f>
         <v>0.6892449748100945</v>
       </c>
-      <c r="B57">
-        <f t="shared" ref="B57:B58" si="69">G39</f>
+      <c r="B60">
+        <f>G39</f>
         <v>0.15306591653231907</v>
       </c>
-      <c r="C57">
-        <f t="shared" ref="C57:C59" si="70">$S$20</f>
+      <c r="C60">
+        <f t="shared" ref="C60:C62" si="68">$S$20</f>
         <v>0.7</v>
       </c>
-      <c r="D57">
-        <f t="shared" ref="D57:D59" si="71">F39</f>
+      <c r="D60">
+        <f>F39</f>
         <v>0.64591389514498865</v>
       </c>
-      <c r="E57">
-        <f t="shared" ref="E57:E58" si="72">H39</f>
+      <c r="E60">
+        <f>H39</f>
         <v>0.1913073724298063</v>
       </c>
-      <c r="F57">
-        <f t="shared" ref="F57:F59" si="73">$T$20</f>
+      <c r="F60">
+        <f t="shared" ref="F60:F62" si="69">$T$20</f>
         <v>0.8</v>
       </c>
-      <c r="G57">
-        <f t="shared" ref="G57:G59" si="74">A57*B57*C57+D57*E57*F57</f>
+      <c r="G60">
+        <f t="shared" ref="G60:G62" si="70">A60*B60*C60+D60*E60*F60</f>
         <v>0.17270441172609297</v>
       </c>
-      <c r="K57">
-        <f t="shared" ref="K57:K59" si="75">E39</f>
+      <c r="K60">
+        <f>E39</f>
         <v>0.6892449748100945</v>
       </c>
-      <c r="L57">
-        <f t="shared" ref="L57:L59" si="76">G39</f>
+      <c r="L60">
+        <f>G39</f>
         <v>0.15306591653231907</v>
       </c>
-      <c r="M57">
-        <f t="shared" ref="M57:M59" si="77">$S$21</f>
+      <c r="M60">
+        <f t="shared" ref="M60:M62" si="71">$S$21</f>
         <v>0.9</v>
       </c>
-      <c r="N57">
-        <f t="shared" ref="N57:N59" si="78">F39</f>
+      <c r="N60">
+        <f>F39</f>
         <v>0.64591389514498865</v>
       </c>
-      <c r="O57">
-        <f t="shared" ref="O57:O59" si="79">H39</f>
+      <c r="O60">
+        <f>H39</f>
         <v>0.1913073724298063</v>
       </c>
-      <c r="P57">
-        <f t="shared" ref="P57:P59" si="80">$T$21</f>
+      <c r="P60">
+        <f t="shared" ref="P60:P62" si="72">$T$21</f>
         <v>0.1</v>
       </c>
-      <c r="Q57">
-        <f t="shared" ref="Q57:Q59" si="81">K57*L57*M57+N57*O57*P57</f>
+      <c r="Q60">
+        <f t="shared" ref="Q60:Q62" si="73">K60*L60*M60+N60*O60*P60</f>
         <v>0.10730673141575098</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A58">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <f>E40</f>
+        <v>0.76764369030253998</v>
+      </c>
+      <c r="B61">
+        <f>G40</f>
+        <v>0.11032156493042987</v>
+      </c>
+      <c r="C61">
         <f t="shared" si="68"/>
+        <v>0.7</v>
+      </c>
+      <c r="D61">
+        <f>F40</f>
+        <v>0.713332699251776</v>
+      </c>
+      <c r="E61">
+        <f>H40</f>
+        <v>0.16959948980540995</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="69"/>
+        <v>0.8</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="70"/>
+        <v>0.15606604673989624</v>
+      </c>
+      <c r="K61">
+        <f>E40</f>
         <v>0.76764369030253998</v>
       </c>
-      <c r="B58">
-        <f t="shared" si="69"/>
+      <c r="L61">
+        <f>G40</f>
         <v>0.11032156493042987</v>
       </c>
-      <c r="C58">
-        <f t="shared" si="70"/>
-        <v>0.7</v>
-      </c>
-      <c r="D58">
+      <c r="M61">
         <f t="shared" si="71"/>
+        <v>0.9</v>
+      </c>
+      <c r="N61">
+        <f>F40</f>
         <v>0.713332699251776</v>
       </c>
-      <c r="E58">
+      <c r="O61">
+        <f>H40</f>
+        <v>0.16959948980540995</v>
+      </c>
+      <c r="P61">
         <f t="shared" si="72"/>
-        <v>0.16959948980540995</v>
-      </c>
-      <c r="F58">
+        <v>0.1</v>
+      </c>
+      <c r="Q61">
         <f t="shared" si="73"/>
-        <v>0.8</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="74"/>
-        <v>0.15606604673989624</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="75"/>
-        <v>0.76764369030253998</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="76"/>
-        <v>0.11032156493042987</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="77"/>
-        <v>0.9</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="78"/>
-        <v>0.713332699251776</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="79"/>
-        <v>0.16959948980540995</v>
-      </c>
-      <c r="P58">
-        <f t="shared" si="80"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q58">
-        <f t="shared" si="81"/>
         <v>8.831697408629352E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <f t="shared" si="68"/>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <f>E41</f>
         <v>0.79131191358988529</v>
       </c>
-      <c r="B59">
+      <c r="B62">
         <f>G41</f>
         <v>9.7219923611919806E-2</v>
       </c>
-      <c r="C59">
-        <f t="shared" si="70"/>
+      <c r="C62">
+        <f t="shared" si="68"/>
         <v>0.7</v>
       </c>
-      <c r="D59">
-        <f t="shared" si="71"/>
+      <c r="D62">
+        <f>F41</f>
         <v>0.7380579738891675</v>
       </c>
-      <c r="E59">
+      <c r="E62">
         <f>H41</f>
         <v>0.15871680240313729</v>
       </c>
-      <c r="F59">
+      <c r="F62">
+        <f t="shared" si="69"/>
+        <v>0.8</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="70"/>
+        <v>0.14756565993774901</v>
+      </c>
+      <c r="K62">
+        <f>E41</f>
+        <v>0.79131191358988529</v>
+      </c>
+      <c r="L62">
+        <f>G41</f>
+        <v>9.7219923611919806E-2</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="71"/>
+        <v>0.9</v>
+      </c>
+      <c r="N62">
+        <f>F41</f>
+        <v>0.7380579738891675</v>
+      </c>
+      <c r="O62">
+        <f>H41</f>
+        <v>0.15871680240313729</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="72"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q62">
         <f t="shared" si="73"/>
-        <v>0.8</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="74"/>
-        <v>0.14756565993774901</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="75"/>
-        <v>0.79131191358988529</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="76"/>
-        <v>9.7219923611919806E-2</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="77"/>
-        <v>0.9</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="78"/>
-        <v>0.7380579738891675</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="79"/>
-        <v>0.15871680240313729</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="80"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q59">
-        <f t="shared" si="81"/>
         <v>8.0952375573552351E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="M64" t="s">
+        <v>60</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>3</v>
+      </c>
+      <c r="P64">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>60</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>4</v>
+      </c>
+      <c r="T64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
         <v>107</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B65" t="s">
         <v>118</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C65" t="s">
         <v>119</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D65" t="s">
         <v>128</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E65" t="s">
         <v>131</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F65" t="s">
         <v>121</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G65" t="s">
         <v>126</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H65" t="s">
         <v>127</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I65" t="s">
         <v>130</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J65" t="s">
         <v>132</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K65" t="s">
         <v>133</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L65" t="s">
         <v>134</v>
       </c>
-      <c r="M62" s="8" t="s">
+      <c r="M65" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="N62" s="8" t="s">
+      <c r="N65" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O62" s="8" t="s">
+      <c r="O65" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="P62" s="8" t="s">
+      <c r="P65" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="Q62" s="8" t="s">
+      <c r="Q65" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="R62" s="8" t="s">
+      <c r="R65" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="S62" s="8" t="s">
+      <c r="S65" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="T62" s="8" t="s">
+      <c r="T65" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="C63" t="s">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C66" t="s">
         <v>120</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D66" t="s">
         <v>129</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F66" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G66" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H66" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="I63" s="8" t="s">
+      <c r="I66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J66" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="K63" s="8" t="s">
+      <c r="K66" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="L63" s="8" t="s">
+      <c r="L66" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <f>G56</f>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <f>G59</f>
         <v>0.15020863828428854</v>
       </c>
-      <c r="B64">
-        <f>Q56</f>
+      <c r="B67">
+        <f>Q59</f>
         <v>8.180462963291224E-2</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C67" s="8">
         <f>M38*(1-M38)</f>
         <v>1.3207708258740227E-2</v>
       </c>
-      <c r="D64">
+      <c r="D67">
         <f>N38*(1-N38)</f>
         <v>4.9421325314260196E-3</v>
       </c>
-      <c r="E64">
+      <c r="E67">
         <f>A25</f>
         <v>1</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F67" s="12">
         <f>B25</f>
         <v>1</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G67" s="12">
         <f>C25</f>
         <v>4</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H67" s="12">
         <f>D25</f>
         <v>5</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I67" s="12">
         <f>A25</f>
         <v>1</v>
       </c>
-      <c r="J64" s="12">
-        <f t="shared" ref="J64:L64" si="82">B25</f>
-        <v>1</v>
-      </c>
-      <c r="K64" s="12">
-        <f t="shared" si="82"/>
+      <c r="J67" s="12">
+        <f t="shared" ref="J67:L67" si="74">B25</f>
+        <v>1</v>
+      </c>
+      <c r="K67" s="12">
+        <f t="shared" si="74"/>
         <v>4</v>
       </c>
-      <c r="L64" s="12">
-        <f t="shared" si="82"/>
+      <c r="L67" s="12">
+        <f t="shared" si="74"/>
         <v>5</v>
       </c>
-      <c r="M64" s="12">
-        <f>A64*C64*E64</f>
+      <c r="M67" s="12">
+        <f>A67*C67*E67</f>
         <v>1.9839118724015213E-3</v>
       </c>
-      <c r="N64" s="12">
-        <f>A64*C64*F64</f>
+      <c r="N67" s="12">
+        <f>A67*C67*F67</f>
         <v>1.9839118724015213E-3</v>
       </c>
-      <c r="O64">
-        <f>A64*C64*G64</f>
+      <c r="O67">
+        <f>A67*C67*G67</f>
         <v>7.9356474896060854E-3</v>
       </c>
-      <c r="P64">
-        <f>A64*C64*H64</f>
+      <c r="P67">
+        <f>A67*C67*H67</f>
         <v>9.9195593620076059E-3</v>
       </c>
-      <c r="Q64">
-        <f>B64*D64*I64</f>
+      <c r="Q67">
+        <f>B67*D67*I67</f>
         <v>4.0428932133007253E-4</v>
       </c>
-      <c r="R64">
-        <f>B64*D64*J64</f>
+      <c r="R67">
+        <f>B67*D67*J67</f>
         <v>4.0428932133007253E-4</v>
       </c>
-      <c r="S64">
-        <f>B64*D64*K64</f>
+      <c r="S67">
+        <f>B67*D67*K67</f>
         <v>1.6171572853202901E-3</v>
       </c>
-      <c r="T64">
-        <f>B64*D64*L64</f>
+      <c r="T67">
+        <f>B67*D67*L67</f>
         <v>2.0214466066503624E-3</v>
       </c>
-      <c r="V64" s="13">
-        <f>M64*Q64</f>
-        <v>8.0207438447188455E-7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <f t="shared" ref="A65:A67" si="83">G57</f>
+      <c r="V67" s="13">
+        <f>M67+Q67</f>
+        <v>2.3882011937315937E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <f t="shared" ref="A68:A70" si="75">G60</f>
         <v>0.17270441172609297</v>
       </c>
-      <c r="B65">
-        <f t="shared" ref="B65:B67" si="84">Q57</f>
+      <c r="B68">
+        <f t="shared" ref="B68:B70" si="76">Q60</f>
         <v>0.10730673141575098</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C68" s="8">
         <f>M39*(1-M39)</f>
         <v>0.23442334393076131</v>
       </c>
-      <c r="D65">
-        <f t="shared" ref="D65:D67" si="85">N39*(1-N39)</f>
+      <c r="D68">
+        <f>N39*(1-N39)</f>
         <v>0.24370766302104163</v>
       </c>
-      <c r="E65">
-        <f t="shared" ref="E65:E67" si="86">A26</f>
-        <v>1</v>
-      </c>
-      <c r="F65" s="12">
-        <f t="shared" ref="F65:H67" si="87">B26</f>
+      <c r="E68">
+        <f>A26</f>
+        <v>1</v>
+      </c>
+      <c r="F68" s="12">
+        <f>B26</f>
         <v>0.1</v>
       </c>
-      <c r="G65" s="12">
-        <f t="shared" si="87"/>
+      <c r="G68" s="12">
+        <f>C26</f>
         <v>-5</v>
       </c>
-      <c r="H65" s="12">
-        <f t="shared" si="87"/>
+      <c r="H68" s="12">
+        <f>D26</f>
         <v>3</v>
       </c>
-      <c r="I65" s="12">
-        <f t="shared" ref="I65:I67" si="88">A26</f>
-        <v>1</v>
-      </c>
-      <c r="J65" s="12">
-        <f t="shared" ref="J65:J67" si="89">B26</f>
+      <c r="I68" s="12">
+        <f>A26</f>
+        <v>1</v>
+      </c>
+      <c r="J68" s="12">
+        <f>B26</f>
         <v>0.1</v>
       </c>
-      <c r="K65" s="12">
-        <f t="shared" ref="K65:K67" si="90">C26</f>
+      <c r="K68" s="12">
+        <f>C26</f>
         <v>-5</v>
       </c>
-      <c r="L65" s="12">
-        <f t="shared" ref="L65:L67" si="91">D26</f>
+      <c r="L68" s="12">
+        <f>D26</f>
         <v>3</v>
       </c>
-      <c r="M65" s="12">
-        <f t="shared" ref="M65:M67" si="92">A65*C65*E65</f>
+      <c r="M68" s="12">
+        <f t="shared" ref="M68:M70" si="77">A68*C68*E68</f>
         <v>4.0485945708425695E-2</v>
       </c>
-      <c r="N65" s="12">
-        <f t="shared" ref="N65:N67" si="93">A65*C65*F65</f>
+      <c r="N68" s="12">
+        <f t="shared" ref="N68:N70" si="78">A68*C68*F68</f>
         <v>4.0485945708425694E-3</v>
       </c>
-      <c r="O65">
-        <f t="shared" ref="O65:O67" si="94">A65*C65*G65</f>
+      <c r="O68">
+        <f t="shared" ref="O68:O70" si="79">A68*C68*G68</f>
         <v>-0.20242972854212848</v>
       </c>
-      <c r="P65">
-        <f t="shared" ref="P65:P67" si="95">A65*C65*H65</f>
+      <c r="P68">
+        <f t="shared" ref="P68:P70" si="80">A68*C68*H68</f>
         <v>0.12145783712527708</v>
       </c>
-      <c r="Q65">
-        <f t="shared" ref="Q65:Q67" si="96">B65*D65*I65</f>
+      <c r="Q68">
+        <f t="shared" ref="Q68:Q70" si="81">B68*D68*I68</f>
         <v>2.6151472739759259E-2</v>
       </c>
-      <c r="R65">
-        <f t="shared" ref="R65:R67" si="97">B65*D65*J65</f>
+      <c r="R68">
+        <f t="shared" ref="R68:R70" si="82">B68*D68*J68</f>
         <v>2.6151472739759261E-3</v>
       </c>
-      <c r="S65">
-        <f t="shared" ref="S65:S67" si="98">B65*D65*K65</f>
+      <c r="S68">
+        <f t="shared" ref="S68:S70" si="83">B68*D68*K68</f>
         <v>-0.13075736369879629</v>
       </c>
-      <c r="T65">
-        <f t="shared" ref="T65:T67" si="99">B65*D65*L65</f>
+      <c r="T68">
+        <f t="shared" ref="T68:T70" si="84">B68*D68*L68</f>
         <v>7.8454418219277774E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <f t="shared" si="83"/>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <f t="shared" si="75"/>
         <v>0.15606604673989624</v>
       </c>
-      <c r="B66">
-        <f t="shared" si="84"/>
+      <c r="B69">
+        <f t="shared" si="76"/>
         <v>8.831697408629352E-2</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C69" s="8">
         <f>M40*(1-M40)</f>
         <v>0.11436443225195986</v>
       </c>
-      <c r="D66">
-        <f t="shared" si="85"/>
+      <c r="D69">
+        <f>N40*(1-N40)</f>
         <v>7.4904056751489964E-2</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="86"/>
-        <v>1</v>
-      </c>
-      <c r="F66" s="12">
-        <f t="shared" si="87"/>
+      <c r="E69">
+        <f>A27</f>
+        <v>1</v>
+      </c>
+      <c r="F69" s="12">
+        <f>B27</f>
         <v>6</v>
       </c>
-      <c r="G66" s="12">
-        <f t="shared" si="87"/>
+      <c r="G69" s="12">
+        <f>C27</f>
         <v>-5.5419999999999998</v>
       </c>
-      <c r="H66" s="12">
-        <f t="shared" si="87"/>
+      <c r="H69" s="12">
+        <f>D27</f>
         <v>4.8970000000000002</v>
       </c>
-      <c r="I66" s="12">
-        <f t="shared" si="88"/>
-        <v>1</v>
-      </c>
-      <c r="J66" s="12">
-        <f t="shared" si="89"/>
+      <c r="I69" s="12">
+        <f>A27</f>
+        <v>1</v>
+      </c>
+      <c r="J69" s="12">
+        <f>B27</f>
         <v>6</v>
       </c>
-      <c r="K66" s="12">
-        <f t="shared" si="90"/>
+      <c r="K69" s="12">
+        <f>C27</f>
         <v>-5.5419999999999998</v>
       </c>
-      <c r="L66" s="12">
-        <f t="shared" si="91"/>
+      <c r="L69" s="12">
+        <f>D27</f>
         <v>4.8970000000000002</v>
       </c>
-      <c r="M66" s="12">
-        <f t="shared" si="92"/>
+      <c r="M69" s="12">
+        <f t="shared" si="77"/>
         <v>1.7848404829216066E-2</v>
       </c>
-      <c r="N66" s="12">
-        <f t="shared" si="93"/>
+      <c r="N69" s="12">
+        <f t="shared" si="78"/>
         <v>0.10709042897529639</v>
       </c>
-      <c r="O66">
-        <f t="shared" si="94"/>
+      <c r="O69">
+        <f t="shared" si="79"/>
         <v>-9.8915859563515438E-2</v>
       </c>
-      <c r="P66">
-        <f t="shared" si="95"/>
+      <c r="P69">
+        <f t="shared" si="80"/>
         <v>8.7403638448671078E-2</v>
       </c>
-      <c r="Q66">
-        <f t="shared" si="96"/>
+      <c r="Q69">
+        <f t="shared" si="81"/>
         <v>6.6152996390795981E-3</v>
       </c>
-      <c r="R66">
-        <f t="shared" si="97"/>
+      <c r="R69">
+        <f t="shared" si="82"/>
         <v>3.9691797834477585E-2</v>
       </c>
-      <c r="S66">
-        <f t="shared" si="98"/>
+      <c r="S69">
+        <f t="shared" si="83"/>
         <v>-3.6661990599779135E-2</v>
       </c>
-      <c r="T66">
-        <f t="shared" si="99"/>
+      <c r="T69">
+        <f t="shared" si="84"/>
         <v>3.2395122332572794E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A67">
-        <f t="shared" si="83"/>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <f t="shared" si="75"/>
         <v>0.14756565993774901</v>
       </c>
-      <c r="B67">
-        <f t="shared" si="84"/>
+      <c r="B70">
+        <f t="shared" si="76"/>
         <v>8.0952375573552351E-2</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C70" s="8">
         <f>M41*(1-M41)</f>
         <v>4.093994197234452E-4</v>
       </c>
-      <c r="D67">
+      <c r="D70">
+        <f>N41*(1-N41)</f>
+        <v>5.0169647437728057E-5</v>
+      </c>
+      <c r="E70">
+        <f>A28</f>
+        <v>1</v>
+      </c>
+      <c r="F70" s="12">
+        <f>B28</f>
+        <v>4</v>
+      </c>
+      <c r="G70" s="12">
+        <f>C28</f>
+        <v>8</v>
+      </c>
+      <c r="H70" s="12">
+        <f>D28</f>
+        <v>9</v>
+      </c>
+      <c r="I70" s="12">
+        <f>A28</f>
+        <v>1</v>
+      </c>
+      <c r="J70" s="12">
+        <f>B28</f>
+        <v>4</v>
+      </c>
+      <c r="K70" s="12">
+        <f>C28</f>
+        <v>8</v>
+      </c>
+      <c r="L70" s="12">
+        <f>D28</f>
+        <v>9</v>
+      </c>
+      <c r="M70" s="12">
+        <f t="shared" si="77"/>
+        <v>6.0413295549621688E-5</v>
+      </c>
+      <c r="N70" s="12">
+        <f t="shared" si="78"/>
+        <v>2.4165318219848675E-4</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="79"/>
+        <v>4.833063643969735E-4</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="80"/>
+        <v>5.4371965994659522E-4</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="81"/>
+        <v>4.0613521417716704E-6</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="82"/>
+        <v>1.6245408567086682E-5</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="83"/>
+        <v>3.2490817134173363E-5</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="84"/>
+        <v>3.6552169275945032E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="M72" t="s">
+        <v>27</v>
+      </c>
+      <c r="N72" t="s">
+        <v>28</v>
+      </c>
+      <c r="O72" t="s">
+        <v>29</v>
+      </c>
+      <c r="P72" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>89</v>
+      </c>
+      <c r="R72" t="s">
+        <v>90</v>
+      </c>
+      <c r="S72" t="s">
+        <v>91</v>
+      </c>
+      <c r="T72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="M73" s="1">
+        <f>SUM(M67:M70)</f>
+        <v>6.037867570559291E-2</v>
+      </c>
+      <c r="N73" s="1">
+        <f t="shared" ref="N73:T73" si="85">SUM(N67:N70)</f>
+        <v>0.11336458860073896</v>
+      </c>
+      <c r="O73" s="1">
         <f t="shared" si="85"/>
-        <v>5.0169647437728057E-5</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="86"/>
-        <v>1</v>
-      </c>
-      <c r="F67" s="12">
-        <f t="shared" si="87"/>
-        <v>4</v>
-      </c>
-      <c r="G67" s="12">
-        <f t="shared" si="87"/>
-        <v>8</v>
-      </c>
-      <c r="H67" s="12">
-        <f t="shared" si="87"/>
-        <v>9</v>
-      </c>
-      <c r="I67" s="12">
-        <f t="shared" si="88"/>
-        <v>1</v>
-      </c>
-      <c r="J67" s="12">
-        <f t="shared" si="89"/>
-        <v>4</v>
-      </c>
-      <c r="K67" s="12">
-        <f t="shared" si="90"/>
-        <v>8</v>
-      </c>
-      <c r="L67" s="12">
-        <f t="shared" si="91"/>
-        <v>9</v>
-      </c>
-      <c r="M67" s="12">
-        <f t="shared" si="92"/>
-        <v>6.0413295549621688E-5</v>
-      </c>
-      <c r="N67" s="12">
-        <f t="shared" si="93"/>
-        <v>2.4165318219848675E-4</v>
-      </c>
-      <c r="O67">
-        <f t="shared" si="94"/>
-        <v>4.833063643969735E-4</v>
-      </c>
-      <c r="P67">
-        <f t="shared" si="95"/>
-        <v>5.4371965994659522E-4</v>
-      </c>
-      <c r="Q67">
-        <f t="shared" si="96"/>
-        <v>4.0613521417716704E-6</v>
-      </c>
-      <c r="R67">
-        <f t="shared" si="97"/>
-        <v>1.6245408567086682E-5</v>
-      </c>
-      <c r="S67">
-        <f t="shared" si="98"/>
-        <v>3.2490817134173363E-5</v>
-      </c>
-      <c r="T67">
-        <f t="shared" si="99"/>
-        <v>3.6552169275945032E-5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="M69" t="s">
-        <v>27</v>
-      </c>
-      <c r="N69" t="s">
-        <v>28</v>
-      </c>
-      <c r="O69" t="s">
-        <v>29</v>
-      </c>
-      <c r="P69" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>89</v>
-      </c>
-      <c r="R69" t="s">
-        <v>90</v>
-      </c>
-      <c r="S69" t="s">
-        <v>91</v>
-      </c>
-      <c r="T69" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="M70" s="1">
-        <f>SUM(M64:M67)</f>
-        <v>6.037867570559291E-2</v>
-      </c>
-      <c r="N70" s="1">
-        <f t="shared" ref="N70:T70" si="100">SUM(N64:N67)</f>
-        <v>0.11336458860073896</v>
-      </c>
-      <c r="O70" s="1">
-        <f t="shared" si="100"/>
         <v>-0.29292663425164084</v>
       </c>
-      <c r="P70" s="1">
-        <f t="shared" si="100"/>
+      <c r="P73" s="1">
+        <f t="shared" si="85"/>
         <v>0.21932475459590237</v>
       </c>
-      <c r="Q70" s="1">
-        <f t="shared" si="100"/>
+      <c r="Q73" s="1">
+        <f t="shared" si="85"/>
         <v>3.3175123052310705E-2</v>
       </c>
-      <c r="R70" s="1">
-        <f t="shared" si="100"/>
+      <c r="R73" s="1">
+        <f t="shared" si="85"/>
         <v>4.2727479838350672E-2</v>
       </c>
-      <c r="S70" s="1">
-        <f t="shared" si="100"/>
+      <c r="S73" s="1">
+        <f t="shared" si="85"/>
         <v>-0.16576970619612094</v>
       </c>
-      <c r="T70" s="1">
-        <f t="shared" si="100"/>
+      <c r="T73" s="1">
+        <f t="shared" si="85"/>
         <v>0.11290753932777689</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="J72" s="2" t="s">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J75" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K72">
+      <c r="K75">
         <v>0.01</v>
       </c>
-      <c r="M72" s="1">
-        <f>F19-K72*M70</f>
+      <c r="M75" s="1">
+        <f>F19-K75*M73</f>
         <v>0.49939621324294409</v>
       </c>
-      <c r="N72" s="1">
-        <f>F20-K72*N70</f>
+      <c r="N75" s="1">
+        <f>F20-K75*N73</f>
         <v>9.8866354113992611E-2</v>
       </c>
-      <c r="O72" s="1">
-        <f>F21-K72*O70</f>
+      <c r="O75" s="1">
+        <f>F21-K75*O73</f>
         <v>0.30292926634251638</v>
       </c>
-      <c r="P72" s="1">
-        <f>F22-K72*P70</f>
+      <c r="P75" s="1">
+        <f>F22-K75*P73</f>
         <v>0.49780675245404099</v>
       </c>
-      <c r="Q72" s="1">
-        <f>G19-K72*Q70</f>
+      <c r="Q75" s="1">
+        <f>G19-K75*Q73</f>
         <v>0.49966824876947691</v>
       </c>
-      <c r="R72" s="1">
-        <f>G20-K72*R70</f>
+      <c r="R75" s="1">
+        <f>G20-K75*R73</f>
         <v>0.19957272520161651</v>
       </c>
-      <c r="S72" s="1">
-        <f>G21-K72*S70</f>
+      <c r="S75" s="1">
+        <f>G21-K75*S73</f>
         <v>0.40165769706196125</v>
       </c>
-      <c r="T72" s="1">
-        <f>G22-K72*T70</f>
+      <c r="T75" s="1">
+        <f>G22-K75*T73</f>
         <v>0.5988709246067222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B78" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
+        <v>149</v>
+      </c>
+      <c r="H78" t="s">
+        <v>150</v>
+      </c>
+      <c r="J78" t="s">
+        <v>151</v>
+      </c>
+      <c r="L78" t="s">
+        <v>152</v>
+      </c>
+      <c r="N78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B79">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="D80">
+        <f>B79*B82</f>
+        <v>0.69062000000000001</v>
+      </c>
+      <c r="F80">
+        <f>D80+B89</f>
+        <v>2.0861200000000002</v>
+      </c>
+      <c r="H80">
+        <f>1/(1+EXP(-F80))</f>
+        <v>0.88954677860851827</v>
+      </c>
+      <c r="J80">
+        <f>H80+J86</f>
+        <v>0.7895467786085183</v>
+      </c>
+      <c r="L80">
+        <f>J80*J80</f>
+        <v>0.62338411561108864</v>
+      </c>
+      <c r="N80">
+        <f>L80*0.5</f>
+        <v>0.31169205780554432</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B81" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B82">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="D82">
+        <f>F82*B82</f>
+        <v>7.6536069445070146E-2</v>
+      </c>
+      <c r="F82">
+        <v>7.757558224718239E-2</v>
+      </c>
+      <c r="H82">
+        <f>J80*H85</f>
+        <v>7.757558224718239E-2</v>
+      </c>
+      <c r="J82">
+        <v>0.39477338930425898</v>
+      </c>
+      <c r="L82">
+        <f>0.5*J80</f>
+        <v>0.39477338930425915</v>
+      </c>
+      <c r="N82">
+        <v>0.5</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="H85">
+        <f>(1-H80)*H80</f>
+        <v>9.8253307275726051E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="D86">
+        <f>D82*2</f>
+        <v>0.15307213889014029</v>
+      </c>
+      <c r="H86">
+        <f>(1-J80)*J80</f>
+        <v>0.16616266299742968</v>
+      </c>
+      <c r="J86">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B87">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B88">
+        <v>0.89549999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B89">
+        <f>SUM(B87:B88)</f>
+        <v>1.3955</v>
       </c>
     </row>
   </sheetData>

--- a/MLP-RNN Tutorial.xlsx
+++ b/MLP-RNN Tutorial.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{500D71B2-39E6-4F34-9C42-7AEB44D64B0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AE142C10-C868-43C0-B1A9-DC00BFB31BE8}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{500D71B2-39E6-4F34-9C42-7AEB44D64B0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CC807B1F-A705-4110-A8E5-044D94D82E2F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3546,27 +3546,27 @@
         <v>8.180462963291224E-2</v>
       </c>
       <c r="C67" s="8">
-        <f>M38*(1-M38)</f>
+        <f t="shared" ref="C67:D70" si="74">M38*(1-M38)</f>
         <v>1.3207708258740227E-2</v>
       </c>
       <c r="D67">
-        <f>N38*(1-N38)</f>
+        <f t="shared" si="74"/>
         <v>4.9421325314260196E-3</v>
       </c>
       <c r="E67">
-        <f>A25</f>
+        <f t="shared" ref="E67:H70" si="75">A25</f>
         <v>1</v>
       </c>
       <c r="F67" s="12">
-        <f>B25</f>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
       <c r="G67" s="12">
-        <f>C25</f>
+        <f t="shared" si="75"/>
         <v>4</v>
       </c>
       <c r="H67" s="12">
-        <f>D25</f>
+        <f t="shared" si="75"/>
         <v>5</v>
       </c>
       <c r="I67" s="12">
@@ -3574,15 +3574,15 @@
         <v>1</v>
       </c>
       <c r="J67" s="12">
-        <f t="shared" ref="J67:L67" si="74">B25</f>
+        <f t="shared" ref="J67:L67" si="76">B25</f>
         <v>1</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>4</v>
       </c>
       <c r="L67" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>5</v>
       </c>
       <c r="M67" s="12">
@@ -3624,35 +3624,35 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A68">
-        <f t="shared" ref="A68:A70" si="75">G60</f>
+        <f t="shared" ref="A68:A70" si="77">G60</f>
         <v>0.17270441172609297</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B70" si="76">Q60</f>
+        <f t="shared" ref="B68:B70" si="78">Q60</f>
         <v>0.10730673141575098</v>
       </c>
       <c r="C68" s="8">
-        <f>M39*(1-M39)</f>
+        <f t="shared" si="74"/>
         <v>0.23442334393076131</v>
       </c>
       <c r="D68">
-        <f>N39*(1-N39)</f>
+        <f t="shared" si="74"/>
         <v>0.24370766302104163</v>
       </c>
       <c r="E68">
-        <f>A26</f>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
       <c r="F68" s="12">
-        <f>B26</f>
+        <f t="shared" si="75"/>
         <v>0.1</v>
       </c>
       <c r="G68" s="12">
-        <f>C26</f>
+        <f t="shared" si="75"/>
         <v>-5</v>
       </c>
       <c r="H68" s="12">
-        <f>D26</f>
+        <f t="shared" si="75"/>
         <v>3</v>
       </c>
       <c r="I68" s="12">
@@ -3660,81 +3660,81 @@
         <v>1</v>
       </c>
       <c r="J68" s="12">
-        <f>B26</f>
+        <f t="shared" ref="J68:L70" si="79">B26</f>
         <v>0.1</v>
       </c>
       <c r="K68" s="12">
-        <f>C26</f>
+        <f t="shared" si="79"/>
         <v>-5</v>
       </c>
       <c r="L68" s="12">
-        <f>D26</f>
+        <f t="shared" si="79"/>
         <v>3</v>
       </c>
       <c r="M68" s="12">
-        <f t="shared" ref="M68:M70" si="77">A68*C68*E68</f>
+        <f t="shared" ref="M68:M70" si="80">A68*C68*E68</f>
         <v>4.0485945708425695E-2</v>
       </c>
       <c r="N68" s="12">
-        <f t="shared" ref="N68:N70" si="78">A68*C68*F68</f>
+        <f t="shared" ref="N68:N70" si="81">A68*C68*F68</f>
         <v>4.0485945708425694E-3</v>
       </c>
       <c r="O68">
-        <f t="shared" ref="O68:O70" si="79">A68*C68*G68</f>
+        <f t="shared" ref="O68:O70" si="82">A68*C68*G68</f>
         <v>-0.20242972854212848</v>
       </c>
       <c r="P68">
-        <f t="shared" ref="P68:P70" si="80">A68*C68*H68</f>
+        <f t="shared" ref="P68:P70" si="83">A68*C68*H68</f>
         <v>0.12145783712527708</v>
       </c>
       <c r="Q68">
-        <f t="shared" ref="Q68:Q70" si="81">B68*D68*I68</f>
+        <f t="shared" ref="Q68:Q70" si="84">B68*D68*I68</f>
         <v>2.6151472739759259E-2</v>
       </c>
       <c r="R68">
-        <f t="shared" ref="R68:R70" si="82">B68*D68*J68</f>
+        <f t="shared" ref="R68:R70" si="85">B68*D68*J68</f>
         <v>2.6151472739759261E-3</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:S70" si="83">B68*D68*K68</f>
+        <f t="shared" ref="S68:S70" si="86">B68*D68*K68</f>
         <v>-0.13075736369879629</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:T70" si="84">B68*D68*L68</f>
+        <f t="shared" ref="T68:T70" si="87">B68*D68*L68</f>
         <v>7.8454418219277774E-2</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A69">
+        <f t="shared" si="77"/>
+        <v>0.15606604673989624</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="78"/>
+        <v>8.831697408629352E-2</v>
+      </c>
+      <c r="C69" s="8">
+        <f t="shared" si="74"/>
+        <v>0.11436443225195986</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="74"/>
+        <v>7.4904056751489964E-2</v>
+      </c>
+      <c r="E69">
         <f t="shared" si="75"/>
-        <v>0.15606604673989624</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="76"/>
-        <v>8.831697408629352E-2</v>
-      </c>
-      <c r="C69" s="8">
-        <f>M40*(1-M40)</f>
-        <v>0.11436443225195986</v>
-      </c>
-      <c r="D69">
-        <f>N40*(1-N40)</f>
-        <v>7.4904056751489964E-2</v>
-      </c>
-      <c r="E69">
-        <f>A27</f>
         <v>1</v>
       </c>
       <c r="F69" s="12">
-        <f>B27</f>
+        <f t="shared" si="75"/>
         <v>6</v>
       </c>
       <c r="G69" s="12">
-        <f>C27</f>
+        <f t="shared" si="75"/>
         <v>-5.5419999999999998</v>
       </c>
       <c r="H69" s="12">
-        <f>D27</f>
+        <f t="shared" si="75"/>
         <v>4.8970000000000002</v>
       </c>
       <c r="I69" s="12">
@@ -3742,81 +3742,81 @@
         <v>1</v>
       </c>
       <c r="J69" s="12">
-        <f>B27</f>
+        <f t="shared" si="79"/>
         <v>6</v>
       </c>
       <c r="K69" s="12">
-        <f>C27</f>
+        <f t="shared" si="79"/>
         <v>-5.5419999999999998</v>
       </c>
       <c r="L69" s="12">
-        <f>D27</f>
+        <f t="shared" si="79"/>
         <v>4.8970000000000002</v>
       </c>
       <c r="M69" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>1.7848404829216066E-2</v>
       </c>
       <c r="N69" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.10709042897529639</v>
       </c>
       <c r="O69">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>-9.8915859563515438E-2</v>
       </c>
       <c r="P69">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>8.7403638448671078E-2</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>6.6152996390795981E-3</v>
       </c>
       <c r="R69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>3.9691797834477585E-2</v>
       </c>
       <c r="S69">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>-3.6661990599779135E-2</v>
       </c>
       <c r="T69">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>3.2395122332572794E-2</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A70">
+        <f t="shared" si="77"/>
+        <v>0.14756565993774901</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="78"/>
+        <v>8.0952375573552351E-2</v>
+      </c>
+      <c r="C70" s="8">
+        <f t="shared" si="74"/>
+        <v>4.093994197234452E-4</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="74"/>
+        <v>5.0169647437728057E-5</v>
+      </c>
+      <c r="E70">
         <f t="shared" si="75"/>
-        <v>0.14756565993774901</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="76"/>
-        <v>8.0952375573552351E-2</v>
-      </c>
-      <c r="C70" s="8">
-        <f>M41*(1-M41)</f>
-        <v>4.093994197234452E-4</v>
-      </c>
-      <c r="D70">
-        <f>N41*(1-N41)</f>
-        <v>5.0169647437728057E-5</v>
-      </c>
-      <c r="E70">
-        <f>A28</f>
         <v>1</v>
       </c>
       <c r="F70" s="12">
-        <f>B28</f>
+        <f t="shared" si="75"/>
         <v>4</v>
       </c>
       <c r="G70" s="12">
-        <f>C28</f>
+        <f t="shared" si="75"/>
         <v>8</v>
       </c>
       <c r="H70" s="12">
-        <f>D28</f>
+        <f t="shared" si="75"/>
         <v>9</v>
       </c>
       <c r="I70" s="12">
@@ -3824,47 +3824,47 @@
         <v>1</v>
       </c>
       <c r="J70" s="12">
-        <f>B28</f>
+        <f t="shared" si="79"/>
         <v>4</v>
       </c>
       <c r="K70" s="12">
-        <f>C28</f>
+        <f t="shared" si="79"/>
         <v>8</v>
       </c>
       <c r="L70" s="12">
-        <f>D28</f>
+        <f t="shared" si="79"/>
         <v>9</v>
       </c>
       <c r="M70" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>6.0413295549621688E-5</v>
       </c>
       <c r="N70" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>2.4165318219848675E-4</v>
       </c>
       <c r="O70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>4.833063643969735E-4</v>
       </c>
       <c r="P70">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>5.4371965994659522E-4</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>4.0613521417716704E-6</v>
       </c>
       <c r="R70">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>1.6245408567086682E-5</v>
       </c>
       <c r="S70">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>3.2490817134173363E-5</v>
       </c>
       <c r="T70">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>3.6552169275945032E-5</v>
       </c>
     </row>
@@ -3900,31 +3900,31 @@
         <v>6.037867570559291E-2</v>
       </c>
       <c r="N73" s="1">
-        <f t="shared" ref="N73:T73" si="85">SUM(N67:N70)</f>
+        <f t="shared" ref="N73:T73" si="88">SUM(N67:N70)</f>
         <v>0.11336458860073896</v>
       </c>
       <c r="O73" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-0.29292663425164084</v>
       </c>
       <c r="P73" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.21932475459590237</v>
       </c>
       <c r="Q73" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>3.3175123052310705E-2</v>
       </c>
       <c r="R73" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>4.2727479838350672E-2</v>
       </c>
       <c r="S73" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-0.16576970619612094</v>
       </c>
       <c r="T73" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.11290753932777689</v>
       </c>
     </row>
